--- a/ADMON_CHNT/MED Chente 2024.xlsx
+++ b/ADMON_CHNT/MED Chente 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/ADMON_CHNT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{92DEEA71-F442-41D9-9D0F-0F0961E7B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22982CDC-53BC-43F0-8DAB-0C64794AA7D1}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{92DEEA71-F442-41D9-9D0F-0F0961E7B16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B30CDBD3-5395-416B-9720-2EB814921B4E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1F2423F2-A51C-4811-91B6-227BC8F06A1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F2423F2-A51C-4811-91B6-227BC8F06A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPEDIENTE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EXPEDIENTE!$B$5:$H$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">PESO!$B$171:$E$206</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">TA!$B$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">TA!$B$1:$H$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">PESO!$2:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -695,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -915,11 +915,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1103,9 +1140,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,6 +1154,21 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1500,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9017FF6C-9E5E-403A-B714-F0DCEC845BA9}">
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
@@ -3170,9 +3219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E0F741-1E89-4E6B-9AE3-5A3538D8C977}">
   <dimension ref="B1:CJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3478,46 +3527,46 @@
       <c r="CJ3" s="39"/>
     </row>
     <row r="4" spans="2:88" x14ac:dyDescent="0.2">
-      <c r="B4" s="69">
+      <c r="B4" s="74">
         <f>MAX(B7:B40)</f>
-        <v>45747</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="J4" s="69">
+        <v>45808</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="J4" s="74">
         <f>MAX(J7:J40)</f>
         <v>45716</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="R4" s="69">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="R4" s="74">
         <f>MAX(R7:R40)</f>
         <v>45688</v>
       </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Z4" s="69">
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Z4" s="74">
         <f>MAX(Z7:Z40)</f>
         <v>45657</v>
       </c>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
       <c r="AH4" s="63">
         <f>MAX(AH7:AH40)</f>
         <v>45626</v>
@@ -3591,49 +3640,49 @@
     </row>
     <row r="5" spans="2:88" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="73"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="72"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72" t="s">
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="71"/>
-      <c r="P5" s="73"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="72"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="70" t="s">
+      <c r="S5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="72" t="s">
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="73"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="72"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="70" t="s">
+      <c r="AA5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="72" t="s">
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="73"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="72"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="2" t="s">
         <v>8</v>
@@ -3947,26 +3996,14 @@
     </row>
     <row r="7" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
-        <v>45717</v>
-      </c>
-      <c r="C7" s="5">
-        <v>144</v>
-      </c>
-      <c r="D7" s="5">
-        <v>75</v>
-      </c>
-      <c r="E7" s="14">
-        <v>71</v>
-      </c>
-      <c r="F7" s="19">
-        <v>114</v>
-      </c>
-      <c r="G7" s="5">
-        <v>66</v>
-      </c>
-      <c r="H7" s="5">
-        <v>86</v>
-      </c>
+        <v>45778</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="J7" s="4">
         <v>45689</v>
       </c>
@@ -4174,26 +4211,14 @@
     </row>
     <row r="8" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
-        <v>45718</v>
-      </c>
-      <c r="C8" s="5">
-        <v>135</v>
-      </c>
-      <c r="D8" s="5">
-        <v>77</v>
-      </c>
-      <c r="E8" s="14">
-        <v>76</v>
-      </c>
-      <c r="F8" s="19">
-        <v>155</v>
-      </c>
-      <c r="G8" s="5">
-        <v>63</v>
-      </c>
-      <c r="H8" s="5">
-        <v>78</v>
-      </c>
+        <v>45779</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="J8" s="4">
         <v>45690</v>
       </c>
@@ -4401,17 +4426,11 @@
     </row>
     <row r="9" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B9" s="4">
-        <v>45719</v>
-      </c>
-      <c r="C9" s="5">
-        <v>148</v>
-      </c>
-      <c r="D9" s="5">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14">
-        <v>70</v>
-      </c>
+        <v>45780</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="19"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -4628,7 +4647,7 @@
     </row>
     <row r="10" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B10" s="4">
-        <v>45720</v>
+        <v>45781</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -4849,7 +4868,7 @@
     </row>
     <row r="11" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B11" s="4">
-        <v>45721</v>
+        <v>45782</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5070,7 +5089,7 @@
     </row>
     <row r="12" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
-        <v>45722</v>
+        <v>45783</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5291,7 +5310,7 @@
     </row>
     <row r="13" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
-        <v>45723</v>
+        <v>45784</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -5512,7 +5531,7 @@
     </row>
     <row r="14" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B14" s="4">
-        <v>45724</v>
+        <v>45785</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5733,7 +5752,7 @@
     </row>
     <row r="15" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
-        <v>45725</v>
+        <v>45786</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5944,7 +5963,7 @@
     </row>
     <row r="16" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
-        <v>45726</v>
+        <v>45787</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6165,7 +6184,7 @@
     </row>
     <row r="17" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B17" s="4">
-        <v>45727</v>
+        <v>45788</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -6386,7 +6405,7 @@
     </row>
     <row r="18" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B18" s="4">
-        <v>45728</v>
+        <v>45789</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6607,7 +6626,7 @@
     </row>
     <row r="19" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
-        <v>45729</v>
+        <v>45790</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -6828,7 +6847,7 @@
     </row>
     <row r="20" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
-        <v>45730</v>
+        <v>45791</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -7043,7 +7062,7 @@
     </row>
     <row r="21" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
-        <v>45731</v>
+        <v>45792</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -7264,7 +7283,7 @@
     </row>
     <row r="22" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
-        <v>45732</v>
+        <v>45793</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -7479,7 +7498,7 @@
     </row>
     <row r="23" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
-        <v>45733</v>
+        <v>45794</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -7700,7 +7719,7 @@
     </row>
     <row r="24" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
-        <v>45734</v>
+        <v>45795</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -7921,7 +7940,7 @@
     </row>
     <row r="25" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
-        <v>45735</v>
+        <v>45796</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -8142,7 +8161,7 @@
     </row>
     <row r="26" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B26" s="4">
-        <v>45736</v>
+        <v>45797</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -8363,7 +8382,7 @@
     </row>
     <row r="27" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
-        <v>45737</v>
+        <v>45798</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -8578,7 +8597,7 @@
     </row>
     <row r="28" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
-        <v>45738</v>
+        <v>45799</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -8799,7 +8818,7 @@
     </row>
     <row r="29" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
-        <v>45739</v>
+        <v>45800</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -9008,7 +9027,7 @@
     </row>
     <row r="30" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
-        <v>45740</v>
+        <v>45801</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -9223,7 +9242,7 @@
     </row>
     <row r="31" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
-        <v>45741</v>
+        <v>45802</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -9444,7 +9463,7 @@
     </row>
     <row r="32" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
-        <v>45742</v>
+        <v>45803</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -9665,7 +9684,7 @@
     </row>
     <row r="33" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
-        <v>45743</v>
+        <v>45804</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -9874,7 +9893,7 @@
     </row>
     <row r="34" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
-        <v>45744</v>
+        <v>45805</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -10095,7 +10114,7 @@
     </row>
     <row r="35" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B35" s="4">
-        <v>45745</v>
+        <v>45806</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -10302,7 +10321,7 @@
     </row>
     <row r="36" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B36" s="4">
-        <v>45746</v>
+        <v>45807</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -10503,14 +10522,14 @@
     </row>
     <row r="37" spans="2:88" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
-        <v>45747</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+        <v>45808</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="J37" s="4"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -10667,32 +10686,32 @@
       </c>
     </row>
     <row r="38" spans="2:88" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="76">
         <f t="shared" ref="C38:H38" si="0">MAX(C7:C37)</f>
-        <v>148</v>
-      </c>
-      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="76">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="77">
         <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="78">
         <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="76">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="76">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>34</v>
@@ -10971,27 +10990,27 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" ref="C39:H39" si="11">MIN(C7:C37)</f>
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="11"/>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="11"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F39" s="19">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="11"/>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>35</v>
@@ -11268,29 +11287,29 @@
       <c r="B40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="13" t="e">
         <f t="shared" ref="C40:H40" si="22">AVERAGE(C7:C37)</f>
-        <v>142.33333333333334</v>
-      </c>
-      <c r="D40" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="13" t="e">
         <f t="shared" si="22"/>
-        <v>74.333333333333329</v>
-      </c>
-      <c r="E40" s="17">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="17" t="e">
         <f t="shared" si="22"/>
-        <v>72.333333333333329</v>
-      </c>
-      <c r="F40" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="22" t="e">
         <f t="shared" si="22"/>
-        <v>134.5</v>
-      </c>
-      <c r="G40" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="13" t="e">
         <f t="shared" si="22"/>
-        <v>64.5</v>
-      </c>
-      <c r="H40" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="13" t="e">
         <f t="shared" si="22"/>
-        <v>82</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>36</v>
@@ -12215,36 +12234,36 @@
       <c r="BT46" s="6"/>
     </row>
     <row r="47" spans="2:88" x14ac:dyDescent="0.2">
-      <c r="B47" s="74">
+      <c r="B47" s="73">
         <f ca="1">NOW()</f>
-        <v>45719.568436921298</v>
-      </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="J47" s="74">
+        <v>45747.543612037036</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="73"/>
+      <c r="H47" s="73"/>
+      <c r="J47" s="73">
         <f ca="1">NOW()</f>
-        <v>45719.568436921298</v>
-      </c>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="R47" s="74">
+        <v>45747.543612037036</v>
+      </c>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
+      <c r="R47" s="73">
         <f ca="1">NOW()</f>
-        <v>45719.568436921298</v>
-      </c>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
+        <v>45747.543612037036</v>
+      </c>
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="73"/>
+      <c r="X47" s="73"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
@@ -12257,42 +12276,42 @@
       <c r="B48" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72" t="s">
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="73"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="72"/>
       <c r="J48" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="70" t="s">
+      <c r="K48" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="72" t="s">
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O48" s="71"/>
-      <c r="P48" s="73"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="72"/>
       <c r="R48" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="70" t="s">
+      <c r="S48" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="72" t="s">
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
+      <c r="V48" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="W48" s="71"/>
-      <c r="X48" s="73"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="72"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
@@ -13268,11 +13287,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
     <mergeCell ref="Z4:AF4"/>
     <mergeCell ref="AA5:AC5"/>
     <mergeCell ref="AD5:AF5"/>
@@ -13289,6 +13303,11 @@
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="J4:P4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="2833" scale="75" orientation="portrait" r:id="rId1"/>
